--- a/Clases/clase1/datasets/megaclones.xlsx
+++ b/Clases/clase1/datasets/megaclones.xlsx
@@ -1,124 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="false"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17329"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OMAR_2016\R_UNALM\scifbr_unalm\Clases\clase1\datasets\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="fb" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="33">
   <si>
-    <t xml:space="preserve">env</t>
+    <t>env</t>
   </si>
   <si>
-    <t xml:space="preserve">geno</t>
+    <t>geno</t>
   </si>
   <si>
-    <t xml:space="preserve">rep</t>
+    <t>rep</t>
   </si>
   <si>
-    <t xml:space="preserve">rytha</t>
+    <t>rytha</t>
   </si>
   <si>
-    <t xml:space="preserve">fytha</t>
+    <t>fytha</t>
   </si>
   <si>
-    <t xml:space="preserve">dm</t>
+    <t>dm</t>
   </si>
   <si>
-    <t xml:space="preserve">AD08</t>
+    <t>AD08</t>
   </si>
   <si>
-    <t xml:space="preserve">Beauregard</t>
+    <t>Beauregard</t>
   </si>
   <si>
-    <t xml:space="preserve">1</t>
+    <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">2</t>
+    <t>2</t>
   </si>
   <si>
-    <t xml:space="preserve">Blesbok</t>
+    <t>Blesbok</t>
   </si>
   <si>
-    <t xml:space="preserve">Brondal</t>
+    <t>Brondal</t>
   </si>
   <si>
-    <t xml:space="preserve">CEMSA_74-228</t>
+    <t>CEMSA_74-228</t>
   </si>
   <si>
-    <t xml:space="preserve">Jewel</t>
+    <t>Jewel</t>
   </si>
   <si>
-    <t xml:space="preserve">Jonathan</t>
+    <t>Jonathan</t>
   </si>
   <si>
-    <t xml:space="preserve">Mohc</t>
+    <t>Mohc</t>
   </si>
   <si>
-    <t xml:space="preserve">NCSU_1560</t>
+    <t>NCSU_1560</t>
   </si>
   <si>
-    <t xml:space="preserve">Resisto</t>
+    <t>Resisto</t>
   </si>
   <si>
-    <t xml:space="preserve">Santo_Amaro</t>
+    <t>Santo_Amaro</t>
   </si>
   <si>
-    <t xml:space="preserve">Tanzania</t>
+    <t>Tanzania</t>
   </si>
   <si>
-    <t xml:space="preserve">Xushu_18</t>
+    <t>Xushu_18</t>
   </si>
   <si>
-    <t xml:space="preserve">Yanshu_1</t>
+    <t>Yanshu_1</t>
   </si>
   <si>
-    <t xml:space="preserve">AW09</t>
+    <t>AW09</t>
   </si>
   <si>
-    <t xml:space="preserve">CH06</t>
+    <t>CH06</t>
   </si>
   <si>
-    <t xml:space="preserve">GD08</t>
+    <t>GD08</t>
   </si>
   <si>
-    <t xml:space="preserve">GW08</t>
+    <t>GW08</t>
   </si>
   <si>
-    <t xml:space="preserve">GW09</t>
+    <t>GW09</t>
   </si>
   <si>
-    <t xml:space="preserve">LM06</t>
+    <t>LM06</t>
   </si>
   <si>
-    <t xml:space="preserve">MA08</t>
+    <t>MA08</t>
   </si>
   <si>
-    <t xml:space="preserve">OX06</t>
+    <t>OX06</t>
   </si>
   <si>
-    <t xml:space="preserve">SR06</t>
+    <t>SR06</t>
   </si>
   <si>
-    <t xml:space="preserve">UD08</t>
+    <t>UD08</t>
   </si>
   <si>
-    <t xml:space="preserve">UW08</t>
+    <t>UW08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,6 +160,15 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -436,13 +451,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F313"/>
   <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,7 +482,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -472,17 +492,17 @@
       <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>0.7</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>6.25</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>28.5</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -492,17 +512,17 @@
       <c r="C3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>7.5</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>13.5</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>31.5</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -512,17 +532,17 @@
       <c r="C4" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>4.95</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>10.1</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>28.25</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -532,17 +552,17 @@
       <c r="C5" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>3.1</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>10.6</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>26.85</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -552,17 +572,17 @@
       <c r="C6" t="s">
         <v>8</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>4.8</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>15.15</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>31.95</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -572,17 +592,17 @@
       <c r="C7" t="s">
         <v>9</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>5</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>14.9</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>31.25</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -592,17 +612,17 @@
       <c r="C8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>5.95</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>9.1</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>30.8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -612,17 +632,17 @@
       <c r="C9" t="s">
         <v>9</v>
       </c>
-      <c r="D9" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="E9" t="n">
-        <v>9.2</v>
-      </c>
-      <c r="F9" t="n">
-        <v>33.7</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="D9">
+        <v>4.8499999999999996</v>
+      </c>
+      <c r="E9">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F9">
+        <v>33.700000000000003</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -632,17 +652,17 @@
       <c r="C10" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>3.6</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>10.1</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>26</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>6</v>
       </c>
@@ -652,17 +672,17 @@
       <c r="C11" t="s">
         <v>9</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>5.35</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>14.45</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>28.8</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>6</v>
       </c>
@@ -672,17 +692,17 @@
       <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>1.4</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>3.4</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>22.25</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
@@ -692,17 +712,17 @@
       <c r="C13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>2.5</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>6.8</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>22.05</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>6</v>
       </c>
@@ -712,17 +732,17 @@
       <c r="C14" t="s">
         <v>8</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>1.35</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>6.15</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>29.75</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>6</v>
       </c>
@@ -732,17 +752,17 @@
       <c r="C15" t="s">
         <v>9</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>1.6</v>
       </c>
-      <c r="E15" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E15">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F15">
         <v>29.6</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>6</v>
       </c>
@@ -752,17 +772,17 @@
       <c r="C16" t="s">
         <v>8</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>1.85</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>3.45</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>31.55</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>6</v>
       </c>
@@ -772,17 +792,17 @@
       <c r="C17" t="s">
         <v>9</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>2.7</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>5.05</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>29.35</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>6</v>
       </c>
@@ -792,17 +812,17 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>1.65</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>5.65</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>29.55</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -812,17 +832,17 @@
       <c r="C19" t="s">
         <v>9</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>1.55</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>7.5</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>30.5</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>6</v>
       </c>
@@ -832,17 +852,17 @@
       <c r="C20" t="s">
         <v>8</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>0.1</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>3.65</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>30</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>6</v>
       </c>
@@ -852,17 +872,17 @@
       <c r="C21" t="s">
         <v>9</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>2.25</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>10.95</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>32.9</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>6</v>
       </c>
@@ -872,17 +892,17 @@
       <c r="C22" t="s">
         <v>8</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>2.4</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>15.05</v>
       </c>
-      <c r="F22" t="n">
-        <v>37.45</v>
-      </c>
-    </row>
-    <row r="23">
+      <c r="F22">
+        <v>37.450000000000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>6</v>
       </c>
@@ -892,17 +912,17 @@
       <c r="C23" t="s">
         <v>9</v>
       </c>
-      <c r="D23" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E23" t="n">
+      <c r="D23">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E23">
         <v>15.9</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>32.85</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>6</v>
       </c>
@@ -912,17 +932,17 @@
       <c r="C24" t="s">
         <v>8</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>4</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>6.7</v>
       </c>
-      <c r="F24" t="n">
-        <v>33.05</v>
-      </c>
-    </row>
-    <row r="25">
+      <c r="F24">
+        <v>33.049999999999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>6</v>
       </c>
@@ -932,17 +952,17 @@
       <c r="C25" t="s">
         <v>9</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>3.6</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>6.8</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>25.75</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>6</v>
       </c>
@@ -952,17 +972,17 @@
       <c r="C26" t="s">
         <v>8</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>5.6</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>12.8</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>30.75</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>6</v>
       </c>
@@ -972,17 +992,17 @@
       <c r="C27" t="s">
         <v>9</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>6.75</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>16.3</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>32</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>22</v>
       </c>
@@ -992,17 +1012,17 @@
       <c r="C28" t="s">
         <v>8</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>13.55</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>22.65</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>22.7</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>22</v>
       </c>
@@ -1012,17 +1032,17 @@
       <c r="C29" t="s">
         <v>9</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>13.5</v>
       </c>
-      <c r="E29" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E29">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="F29">
         <v>22.5</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>22</v>
       </c>
@@ -1032,17 +1052,17 @@
       <c r="C30" t="s">
         <v>8</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>21.45</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>25</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>25.5</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>22</v>
       </c>
@@ -1052,17 +1072,17 @@
       <c r="C31" t="s">
         <v>9</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>11.1</v>
       </c>
-      <c r="E31" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E31">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="F31">
         <v>24.15</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -1072,17 +1092,17 @@
       <c r="C32" t="s">
         <v>8</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>19.45</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>23.8</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>29.3</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>22</v>
       </c>
@@ -1092,17 +1112,17 @@
       <c r="C33" t="s">
         <v>9</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>21.45</v>
       </c>
-      <c r="E33" t="n">
-        <v>39.3</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E33">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F33">
         <v>29.55</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>22</v>
       </c>
@@ -1112,17 +1132,17 @@
       <c r="C34" t="s">
         <v>8</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>24.1</v>
       </c>
-      <c r="E34" t="n">
-        <v>32.45</v>
-      </c>
-      <c r="F34" t="n">
-        <v>32.2</v>
-      </c>
-    </row>
-    <row r="35">
+      <c r="E34">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="F34">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>22</v>
       </c>
@@ -1132,17 +1152,17 @@
       <c r="C35" t="s">
         <v>9</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>19.25</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>34.75</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>33.65</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -1152,17 +1172,17 @@
       <c r="C36" t="s">
         <v>8</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>10.1</v>
       </c>
-      <c r="E36" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E36">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F36">
         <v>25.3</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>22</v>
       </c>
@@ -1172,17 +1192,17 @@
       <c r="C37" t="s">
         <v>9</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>12.65</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>25.4</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>29.35</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -1192,17 +1212,17 @@
       <c r="C38" t="s">
         <v>8</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>13.65</v>
       </c>
-      <c r="E38" t="n">
-        <v>16.85</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E38">
+        <v>16.850000000000001</v>
+      </c>
+      <c r="F38">
         <v>29.7</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -1212,17 +1232,17 @@
       <c r="C39" t="s">
         <v>9</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>16.3</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>21.4</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>29.9</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>22</v>
       </c>
@@ -1232,17 +1252,17 @@
       <c r="C40" t="s">
         <v>8</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>26.6</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>45.6</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>33.6</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>22</v>
       </c>
@@ -1252,17 +1272,17 @@
       <c r="C41" t="s">
         <v>9</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>15.9</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>22.2</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>32.15</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>22</v>
       </c>
@@ -1272,17 +1292,17 @@
       <c r="C42" t="s">
         <v>8</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>17.45</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>26.15</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>26.3</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>22</v>
       </c>
@@ -1292,17 +1312,17 @@
       <c r="C43" t="s">
         <v>9</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>18.25</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>28.95</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>25.75</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>22</v>
       </c>
@@ -1312,17 +1332,17 @@
       <c r="C44" t="s">
         <v>8</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>8.9</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>13.3</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>29.75</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>22</v>
       </c>
@@ -1332,17 +1352,17 @@
       <c r="C45" t="s">
         <v>9</v>
       </c>
-      <c r="D45" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E45" t="n">
+      <c r="D45">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E45">
         <v>25.2</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>30.35</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>22</v>
       </c>
@@ -1352,17 +1372,17 @@
       <c r="C46" t="s">
         <v>8</v>
       </c>
-      <c r="D46" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="E46" t="n">
+      <c r="D46">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E46">
         <v>22.25</v>
       </c>
-      <c r="F46" t="n">
-        <v>37.45</v>
-      </c>
-    </row>
-    <row r="47">
+      <c r="F46">
+        <v>37.450000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>22</v>
       </c>
@@ -1372,17 +1392,17 @@
       <c r="C47" t="s">
         <v>9</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>38.5</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>54.75</v>
       </c>
-      <c r="F47" t="n">
-        <v>37.45</v>
-      </c>
-    </row>
-    <row r="48">
+      <c r="F47">
+        <v>37.450000000000003</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>22</v>
       </c>
@@ -1392,17 +1412,17 @@
       <c r="C48" t="s">
         <v>8</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>11.35</v>
       </c>
-      <c r="E48" t="n">
-        <v>18.9</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E48">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F48">
         <v>36.85</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>22</v>
       </c>
@@ -1412,17 +1432,17 @@
       <c r="C49" t="s">
         <v>9</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>11.15</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>20.65</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>36.25</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>22</v>
       </c>
@@ -1432,17 +1452,17 @@
       <c r="C50" t="s">
         <v>8</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>21.3</v>
       </c>
-      <c r="E50" t="n">
-        <v>39.2</v>
-      </c>
-      <c r="F50" t="n">
+      <c r="E50">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="F50">
         <v>30.55</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>22</v>
       </c>
@@ -1452,17 +1472,17 @@
       <c r="C51" t="s">
         <v>9</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>24</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>28.8</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>29.35</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>22</v>
       </c>
@@ -1472,17 +1492,17 @@
       <c r="C52" t="s">
         <v>8</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>6.15</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>16.5</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>22.9</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>22</v>
       </c>
@@ -1492,17 +1512,17 @@
       <c r="C53" t="s">
         <v>9</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>9.15</v>
       </c>
-      <c r="E53" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="F53" t="n">
+      <c r="E53">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F53">
         <v>22.9</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>23</v>
       </c>
@@ -1512,17 +1532,17 @@
       <c r="C54" t="s">
         <v>8</v>
       </c>
-      <c r="D54" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="E54" t="n">
+      <c r="D54">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="E54">
         <v>2.89</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>23.71</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>23</v>
       </c>
@@ -1532,17 +1552,17 @@
       <c r="C55" t="s">
         <v>9</v>
       </c>
-      <c r="D55" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E55" t="n">
+      <c r="D55">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E55">
         <v>4.3</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>26.44</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>23</v>
       </c>
@@ -1552,17 +1572,17 @@
       <c r="C56" t="s">
         <v>8</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>31.85</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>18.22</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>35.86</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>23</v>
       </c>
@@ -1572,17 +1592,17 @@
       <c r="C57" t="s">
         <v>9</v>
       </c>
-      <c r="D57" t="n">
-        <v>38.52</v>
-      </c>
-      <c r="E57" t="n">
+      <c r="D57">
+        <v>38.520000000000003</v>
+      </c>
+      <c r="E57">
         <v>12</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>38.89</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>23</v>
       </c>
@@ -1592,17 +1612,17 @@
       <c r="C58" t="s">
         <v>8</v>
       </c>
-      <c r="D58" t="n">
-        <v>19.26</v>
-      </c>
-      <c r="E58" t="n">
+      <c r="D58">
+        <v>19.260000000000002</v>
+      </c>
+      <c r="E58">
         <v>9.26</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>28.99</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -1612,17 +1632,17 @@
       <c r="C59" t="s">
         <v>9</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>21.48</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>6.89</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>31.41</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>23</v>
       </c>
@@ -1632,17 +1652,17 @@
       <c r="C60" t="s">
         <v>8</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>15.19</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>12.67</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>30.18</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>23</v>
       </c>
@@ -1652,17 +1672,17 @@
       <c r="C61" t="s">
         <v>9</v>
       </c>
-      <c r="D61" t="n">
-        <v>36.3</v>
-      </c>
-      <c r="E61" t="n">
+      <c r="D61">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="E61">
         <v>10.89</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>37.67</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -1672,17 +1692,17 @@
       <c r="C62" t="s">
         <v>8</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>37.04</v>
       </c>
-      <c r="E62" t="n">
-        <v>9.78</v>
-      </c>
-      <c r="F62" t="n">
+      <c r="E62">
+        <v>9.7799999999999994</v>
+      </c>
+      <c r="F62">
         <v>25.45</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>23</v>
       </c>
@@ -1692,17 +1712,17 @@
       <c r="C63" t="s">
         <v>9</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>23.7</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>8.44</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>27.78</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>23</v>
       </c>
@@ -1712,17 +1732,17 @@
       <c r="C64" t="s">
         <v>8</v>
       </c>
-      <c r="D64" t="n">
-        <v>34.3</v>
-      </c>
-      <c r="E64" t="n">
+      <c r="D64">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="E64">
         <v>9.26</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>28.88</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>23</v>
       </c>
@@ -1732,17 +1752,17 @@
       <c r="C65" t="s">
         <v>9</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>20.59</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>9.26</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>32.6</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -1752,17 +1772,17 @@
       <c r="C66" t="s">
         <v>8</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>27.41</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>9.26</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>36.71</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>23</v>
       </c>
@@ -1772,17 +1792,17 @@
       <c r="C67" t="s">
         <v>9</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>33.19</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>10.15</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>38.07</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>23</v>
       </c>
@@ -1792,17 +1812,17 @@
       <c r="C68" t="s">
         <v>8</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>25.19</v>
       </c>
-      <c r="E68" t="n">
-        <v>8.96</v>
-      </c>
-      <c r="F68" t="n">
+      <c r="E68">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="F68">
         <v>24.25</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>23</v>
       </c>
@@ -1812,17 +1832,17 @@
       <c r="C69" t="s">
         <v>9</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>32.22</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>6.59</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>26.93</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>23</v>
       </c>
@@ -1832,17 +1852,17 @@
       <c r="C70" t="s">
         <v>8</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>13.78</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>6.89</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>26.59</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>23</v>
       </c>
@@ -1852,17 +1872,17 @@
       <c r="C71" t="s">
         <v>9</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>21.85</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>6.59</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>26.98</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>23</v>
       </c>
@@ -1872,17 +1892,17 @@
       <c r="C72" t="s">
         <v>8</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>48.89</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>10.15</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>33.33</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>23</v>
       </c>
@@ -1892,17 +1912,17 @@
       <c r="C73" t="s">
         <v>9</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>25.19</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>12.67</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>37.25</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>23</v>
       </c>
@@ -1912,17 +1932,17 @@
       <c r="C74" t="s">
         <v>8</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>5.56</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>12</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>33.4</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>23</v>
       </c>
@@ -1932,17 +1952,17 @@
       <c r="C75" t="s">
         <v>9</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>28.89</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>14.89</v>
       </c>
-      <c r="F75" t="n">
-        <v>37.8</v>
-      </c>
-    </row>
-    <row r="76">
+      <c r="F75">
+        <v>37.799999999999997</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>23</v>
       </c>
@@ -1952,17 +1972,17 @@
       <c r="C76" t="s">
         <v>8</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>20</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>10.89</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>30.28</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>23</v>
       </c>
@@ -1972,17 +1992,17 @@
       <c r="C77" t="s">
         <v>9</v>
       </c>
-      <c r="D77" t="n">
-        <v>38.52</v>
-      </c>
-      <c r="E77" t="n">
+      <c r="D77">
+        <v>38.520000000000003</v>
+      </c>
+      <c r="E77">
         <v>7.93</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>29.08</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>23</v>
       </c>
@@ -1992,17 +2012,17 @@
       <c r="C78" t="s">
         <v>8</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>1.48</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>6.59</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>32.15</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>23</v>
       </c>
@@ -2012,17 +2032,17 @@
       <c r="C79" t="s">
         <v>9</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>6.3</v>
       </c>
-      <c r="E79" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="F79" t="n">
+      <c r="E79">
+        <v>1.1100000000000001</v>
+      </c>
+      <c r="F79">
         <v>28.63</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>24</v>
       </c>
@@ -2032,17 +2052,17 @@
       <c r="C80" t="s">
         <v>8</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>11.55</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>14.95</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>30.8</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>24</v>
       </c>
@@ -2052,17 +2072,17 @@
       <c r="C81" t="s">
         <v>9</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>5.15</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>7.9</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>34.35</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>24</v>
       </c>
@@ -2072,17 +2092,17 @@
       <c r="C82" t="s">
         <v>8</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>17.3</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>26.7</v>
       </c>
-      <c r="F82" t="n">
-        <v>33.05</v>
-      </c>
-    </row>
-    <row r="83">
+      <c r="F82">
+        <v>33.049999999999997</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>24</v>
       </c>
@@ -2092,17 +2112,17 @@
       <c r="C83" t="s">
         <v>9</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>3.1</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>6.4</v>
       </c>
-      <c r="F83" t="n">
-        <v>32.7</v>
-      </c>
-    </row>
-    <row r="84">
+      <c r="F83">
+        <v>32.700000000000003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>24</v>
       </c>
@@ -2112,17 +2132,17 @@
       <c r="C84" t="s">
         <v>8</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>11.05</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>21.3</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>25.1</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>24</v>
       </c>
@@ -2132,17 +2152,17 @@
       <c r="C85" t="s">
         <v>9</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>11.5</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>21.95</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>24.4</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>24</v>
       </c>
@@ -2152,17 +2172,17 @@
       <c r="C86" t="s">
         <v>8</v>
       </c>
-      <c r="D86" t="n">
-        <v>9.8</v>
-      </c>
-      <c r="E86" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="F86" t="n">
+      <c r="D86">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E86">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="F86">
         <v>36.5</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>24</v>
       </c>
@@ -2172,17 +2192,17 @@
       <c r="C87" t="s">
         <v>9</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>5.05</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>11.2</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>32.35</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>24</v>
       </c>
@@ -2192,17 +2212,17 @@
       <c r="C88" t="s">
         <v>8</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>3</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>11.7</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>28.5</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>24</v>
       </c>
@@ -2212,17 +2232,17 @@
       <c r="C89" t="s">
         <v>9</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>2.7</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>10.6</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>29.8</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>24</v>
       </c>
@@ -2232,17 +2252,17 @@
       <c r="C90" t="s">
         <v>8</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>1</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>9.1</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>27.75</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>24</v>
       </c>
@@ -2252,17 +2272,17 @@
       <c r="C91" t="s">
         <v>9</v>
       </c>
-      <c r="D91" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="E91" t="n">
-        <v>9.7</v>
-      </c>
-      <c r="F91" t="n">
+      <c r="D91">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="E91">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F91">
         <v>28</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>24</v>
       </c>
@@ -2272,17 +2292,17 @@
       <c r="C92" t="s">
         <v>8</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>11.35</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>18.45</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>31.45</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>24</v>
       </c>
@@ -2292,17 +2312,17 @@
       <c r="C93" t="s">
         <v>9</v>
       </c>
-      <c r="D93" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="E93" t="n">
+      <c r="D93">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E93">
         <v>7.4</v>
       </c>
-      <c r="F93" t="n">
-        <v>33.2</v>
-      </c>
-    </row>
-    <row r="94">
+      <c r="F93">
+        <v>33.200000000000003</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>24</v>
       </c>
@@ -2312,17 +2332,17 @@
       <c r="C94" t="s">
         <v>8</v>
       </c>
-      <c r="D94" t="n">
-        <v>17.35</v>
-      </c>
-      <c r="E94" t="n">
+      <c r="D94">
+        <v>17.350000000000001</v>
+      </c>
+      <c r="E94">
         <v>26</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>30.65</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>24</v>
       </c>
@@ -2332,17 +2352,17 @@
       <c r="C95" t="s">
         <v>9</v>
       </c>
-      <c r="D95" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="E95" t="n">
+      <c r="D95">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E95">
         <v>14.85</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>31.7</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>24</v>
       </c>
@@ -2352,17 +2372,17 @@
       <c r="C96" t="s">
         <v>8</v>
       </c>
-      <c r="D96" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="E96" t="n">
+      <c r="D96">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E96">
         <v>15.65</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>30.15</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>24</v>
       </c>
@@ -2372,17 +2392,17 @@
       <c r="C97" t="s">
         <v>9</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>4</v>
       </c>
-      <c r="E97" t="n">
-        <v>8.2</v>
-      </c>
-      <c r="F97" t="n">
+      <c r="E97">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F97">
         <v>31.15</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>24</v>
       </c>
@@ -2392,17 +2412,17 @@
       <c r="C98" t="s">
         <v>8</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>6.85</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>21.9</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>34.5</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -2412,17 +2432,17 @@
       <c r="C99" t="s">
         <v>9</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>0.9</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>11.2</v>
       </c>
-      <c r="F99" t="n">
-        <v>35.3</v>
-      </c>
-    </row>
-    <row r="100">
+      <c r="F99">
+        <v>35.299999999999997</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>24</v>
       </c>
@@ -2432,17 +2452,17 @@
       <c r="C100" t="s">
         <v>8</v>
       </c>
-      <c r="D100" t="n">
-        <v>18.35</v>
-      </c>
-      <c r="E100" t="n">
+      <c r="D100">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="E100">
         <v>37.4</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>35.1</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>24</v>
       </c>
@@ -2452,17 +2472,17 @@
       <c r="C101" t="s">
         <v>9</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>3.25</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>12.45</v>
       </c>
-      <c r="F101" t="n">
-        <v>38.8</v>
-      </c>
-    </row>
-    <row r="102">
+      <c r="F101">
+        <v>38.799999999999997</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>24</v>
       </c>
@@ -2472,17 +2492,17 @@
       <c r="C102" t="s">
         <v>8</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>7.1</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>13</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>29.6</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>24</v>
       </c>
@@ -2492,17 +2512,17 @@
       <c r="C103" t="s">
         <v>9</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>6.9</v>
       </c>
-      <c r="E103" t="n">
+      <c r="E103">
         <v>13.65</v>
       </c>
-      <c r="F103" t="n">
+      <c r="F103">
         <v>23.05</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>24</v>
       </c>
@@ -2512,17 +2532,17 @@
       <c r="C104" t="s">
         <v>8</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>1</v>
       </c>
-      <c r="E104" t="n">
+      <c r="E104">
         <v>5.55</v>
       </c>
-      <c r="F104" t="n">
+      <c r="F104">
         <v>30.5</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>24</v>
       </c>
@@ -2532,17 +2552,17 @@
       <c r="C105" t="s">
         <v>9</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>0.25</v>
       </c>
-      <c r="E105" t="n">
+      <c r="E105">
         <v>4.25</v>
       </c>
-      <c r="F105" t="n">
+      <c r="F105">
         <v>33.9</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>25</v>
       </c>
@@ -2552,17 +2572,17 @@
       <c r="C106" t="s">
         <v>8</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>18.75</v>
       </c>
-      <c r="E106" t="n">
+      <c r="E106">
         <v>21.75</v>
       </c>
-      <c r="F106" t="n">
-        <v>17.385</v>
-      </c>
-    </row>
-    <row r="107">
+      <c r="F106">
+        <v>17.385000000000002</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>25</v>
       </c>
@@ -2572,17 +2592,17 @@
       <c r="C107" t="s">
         <v>9</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>21.3</v>
       </c>
-      <c r="E107" t="n">
+      <c r="E107">
         <v>24.45</v>
       </c>
-      <c r="F107" t="n">
+      <c r="F107">
         <v>23.08</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>25</v>
       </c>
@@ -2592,17 +2612,17 @@
       <c r="C108" t="s">
         <v>8</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>25.05</v>
       </c>
-      <c r="E108" t="n">
+      <c r="E108">
         <v>27.8</v>
       </c>
-      <c r="F108" t="n">
+      <c r="F108">
         <v>23.285</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>25</v>
       </c>
@@ -2612,17 +2632,17 @@
       <c r="C109" t="s">
         <v>9</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>24.05</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E109">
         <v>27</v>
       </c>
-      <c r="F109" t="n">
-        <v>21.655</v>
-      </c>
-    </row>
-    <row r="110">
+      <c r="F109">
+        <v>21.655000000000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>25</v>
       </c>
@@ -2632,17 +2652,17 @@
       <c r="C110" t="s">
         <v>8</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>23.3</v>
       </c>
-      <c r="E110" t="n">
+      <c r="E110">
         <v>25.5</v>
       </c>
-      <c r="F110" t="n">
+      <c r="F110">
         <v>27.39</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>25</v>
       </c>
@@ -2652,17 +2672,17 @@
       <c r="C111" t="s">
         <v>9</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>18.2</v>
       </c>
-      <c r="E111" t="n">
-        <v>20.35</v>
-      </c>
-      <c r="F111" t="n">
+      <c r="E111">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="F111">
         <v>30.16</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>25</v>
       </c>
@@ -2672,17 +2692,17 @@
       <c r="C112" t="s">
         <v>8</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>25.9</v>
       </c>
-      <c r="E112" t="n">
+      <c r="E112">
         <v>29.05</v>
       </c>
-      <c r="F112" t="n">
-        <v>34.23</v>
-      </c>
-    </row>
-    <row r="113">
+      <c r="F112">
+        <v>34.229999999999997</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>25</v>
       </c>
@@ -2692,17 +2712,17 @@
       <c r="C113" t="s">
         <v>9</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>24.85</v>
       </c>
-      <c r="E113" t="n">
+      <c r="E113">
         <v>28.9</v>
       </c>
-      <c r="F113" t="n">
+      <c r="F113">
         <v>33.5</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>25</v>
       </c>
@@ -2712,17 +2732,17 @@
       <c r="C114" t="s">
         <v>8</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>15.15</v>
       </c>
-      <c r="E114" t="n">
+      <c r="E114">
         <v>18.45</v>
       </c>
-      <c r="F114" t="n">
-        <v>31.085</v>
-      </c>
-    </row>
-    <row r="115">
+      <c r="F114">
+        <v>31.085000000000001</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>25</v>
       </c>
@@ -2732,17 +2752,17 @@
       <c r="C115" t="s">
         <v>9</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>17.05</v>
       </c>
-      <c r="E115" t="n">
+      <c r="E115">
         <v>20.65</v>
       </c>
-      <c r="F115" t="n">
-        <v>28.845</v>
-      </c>
-    </row>
-    <row r="116">
+      <c r="F115">
+        <v>28.844999999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>25</v>
       </c>
@@ -2752,17 +2772,17 @@
       <c r="C116" t="s">
         <v>8</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>12.65</v>
       </c>
-      <c r="E116" t="n">
-        <v>19.35</v>
-      </c>
-      <c r="F116" t="n">
-        <v>27.735</v>
-      </c>
-    </row>
-    <row r="117">
+      <c r="E116">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="F116">
+        <v>27.734999999999999</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>25</v>
       </c>
@@ -2772,17 +2792,17 @@
       <c r="C117" t="s">
         <v>9</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>14.55</v>
       </c>
-      <c r="E117" t="n">
+      <c r="E117">
         <v>22.1</v>
       </c>
-      <c r="F117" t="n">
-        <v>26.505</v>
-      </c>
-    </row>
-    <row r="118">
+      <c r="F117">
+        <v>26.504999999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>25</v>
       </c>
@@ -2792,17 +2812,17 @@
       <c r="C118" t="s">
         <v>8</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>23.8</v>
       </c>
-      <c r="E118" t="n">
+      <c r="E118">
         <v>29.4</v>
       </c>
-      <c r="F118" t="n">
+      <c r="F118">
         <v>31.25</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>25</v>
       </c>
@@ -2812,17 +2832,17 @@
       <c r="C119" t="s">
         <v>9</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>16.7</v>
       </c>
-      <c r="E119" t="n">
+      <c r="E119">
         <v>18.95</v>
       </c>
-      <c r="F119" t="n">
+      <c r="F119">
         <v>31.195</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>25</v>
       </c>
@@ -2832,17 +2852,17 @@
       <c r="C120" t="s">
         <v>8</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>28.2</v>
       </c>
-      <c r="E120" t="n">
+      <c r="E120">
         <v>32.15</v>
       </c>
-      <c r="F120" t="n">
+      <c r="F120">
         <v>27.5</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>25</v>
       </c>
@@ -2852,17 +2872,17 @@
       <c r="C121" t="s">
         <v>9</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>28.6</v>
       </c>
-      <c r="E121" t="n">
-        <v>32.3</v>
-      </c>
-      <c r="F121" t="n">
+      <c r="E121">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="F121">
         <v>23.63</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>25</v>
       </c>
@@ -2872,17 +2892,17 @@
       <c r="C122" t="s">
         <v>8</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>12.75</v>
       </c>
-      <c r="E122" t="n">
+      <c r="E122">
         <v>15.5</v>
       </c>
-      <c r="F122" t="n">
+      <c r="F122">
         <v>23.785</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>25</v>
       </c>
@@ -2892,17 +2912,17 @@
       <c r="C123" t="s">
         <v>9</v>
       </c>
-      <c r="D123" t="n">
-        <v>18.6</v>
-      </c>
-      <c r="E123" t="n">
+      <c r="D123">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="E123">
         <v>22</v>
       </c>
-      <c r="F123" t="n">
+      <c r="F123">
         <v>27.82</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>25</v>
       </c>
@@ -2912,17 +2932,17 @@
       <c r="C124" t="s">
         <v>8</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>9.6</v>
       </c>
-      <c r="E124" t="n">
+      <c r="E124">
         <v>16.7</v>
       </c>
-      <c r="F124" t="n">
+      <c r="F124">
         <v>36.51</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>25</v>
       </c>
@@ -2932,17 +2952,17 @@
       <c r="C125" t="s">
         <v>9</v>
       </c>
-      <c r="D125" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="E125" t="n">
+      <c r="D125">
+        <v>10.050000000000001</v>
+      </c>
+      <c r="E125">
         <v>17.2</v>
       </c>
-      <c r="F125" t="n">
+      <c r="F125">
         <v>37.1</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>25</v>
       </c>
@@ -2952,17 +2972,17 @@
       <c r="C126" t="s">
         <v>8</v>
       </c>
-      <c r="D126" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="E126" t="n">
+      <c r="D126">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="E126">
         <v>29.15</v>
       </c>
-      <c r="F126" t="n">
+      <c r="F126">
         <v>35.51</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>25</v>
       </c>
@@ -2972,17 +2992,17 @@
       <c r="C127" t="s">
         <v>9</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>15.6</v>
       </c>
-      <c r="E127" t="n">
+      <c r="E127">
         <v>20.3</v>
       </c>
-      <c r="F127" t="n">
+      <c r="F127">
         <v>38</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>25</v>
       </c>
@@ -2992,17 +3012,17 @@
       <c r="C128" t="s">
         <v>8</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>20.2</v>
       </c>
-      <c r="E128" t="n">
+      <c r="E128">
         <v>23</v>
       </c>
-      <c r="F128" t="n">
+      <c r="F128">
         <v>29.8</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>25</v>
       </c>
@@ -3012,17 +3032,17 @@
       <c r="C129" t="s">
         <v>9</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>26.15</v>
       </c>
-      <c r="E129" t="n">
+      <c r="E129">
         <v>32.6</v>
       </c>
-      <c r="F129" t="n">
-        <v>33.8</v>
-      </c>
-    </row>
-    <row r="130">
+      <c r="F129">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>25</v>
       </c>
@@ -3032,17 +3052,17 @@
       <c r="C130" t="s">
         <v>8</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>4.8</v>
       </c>
-      <c r="E130" t="n">
+      <c r="E130">
         <v>11.45</v>
       </c>
-      <c r="F130" t="n">
+      <c r="F130">
         <v>25.95</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>25</v>
       </c>
@@ -3052,17 +3072,17 @@
       <c r="C131" t="s">
         <v>9</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>4.55</v>
       </c>
-      <c r="E131" t="n">
+      <c r="E131">
         <v>12.45</v>
       </c>
-      <c r="F131" t="n">
-        <v>22.595</v>
-      </c>
-    </row>
-    <row r="132">
+      <c r="F131">
+        <v>22.594999999999999</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>26</v>
       </c>
@@ -3072,17 +3092,17 @@
       <c r="C132" t="s">
         <v>8</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>15.25</v>
       </c>
-      <c r="E132" t="n">
+      <c r="E132">
         <v>29.05</v>
       </c>
-      <c r="F132" t="n">
+      <c r="F132">
         <v>17.2</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>26</v>
       </c>
@@ -3092,17 +3112,17 @@
       <c r="C133" t="s">
         <v>9</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>16.45</v>
       </c>
-      <c r="E133" t="n">
+      <c r="E133">
         <v>24.4</v>
       </c>
-      <c r="F133" t="n">
+      <c r="F133">
         <v>23.05</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>26</v>
       </c>
@@ -3112,17 +3132,17 @@
       <c r="C134" t="s">
         <v>8</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>22.5</v>
       </c>
-      <c r="E134" t="n">
+      <c r="E134">
         <v>28.85</v>
       </c>
-      <c r="F134" t="n">
+      <c r="F134">
         <v>23.3</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>26</v>
       </c>
@@ -3132,17 +3152,17 @@
       <c r="C135" t="s">
         <v>9</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>12.45</v>
       </c>
-      <c r="E135" t="n">
+      <c r="E135">
         <v>41</v>
       </c>
-      <c r="F135" t="n">
+      <c r="F135">
         <v>21.65</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>26</v>
       </c>
@@ -3152,17 +3172,17 @@
       <c r="C136" t="s">
         <v>8</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>13.2</v>
       </c>
-      <c r="E136" t="n">
+      <c r="E136">
         <v>18.3</v>
       </c>
-      <c r="F136" t="n">
+      <c r="F136">
         <v>27.35</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>26</v>
       </c>
@@ -3172,17 +3192,17 @@
       <c r="C137" t="s">
         <v>9</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>15.1</v>
       </c>
-      <c r="E137" t="n">
+      <c r="E137">
         <v>29.4</v>
       </c>
-      <c r="F137" t="n">
+      <c r="F137">
         <v>30.15</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>26</v>
       </c>
@@ -3192,17 +3212,17 @@
       <c r="C138" t="s">
         <v>8</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>10.55</v>
       </c>
-      <c r="E138" t="n">
-        <v>17.6</v>
-      </c>
-      <c r="F138" t="n">
+      <c r="E138">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="F138">
         <v>34.25</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>26</v>
       </c>
@@ -3212,17 +3232,17 @@
       <c r="C139" t="s">
         <v>9</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>15.25</v>
       </c>
-      <c r="E139" t="n">
+      <c r="E139">
         <v>22.6</v>
       </c>
-      <c r="F139" t="n">
+      <c r="F139">
         <v>33.5</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>26</v>
       </c>
@@ -3232,17 +3252,17 @@
       <c r="C140" t="s">
         <v>8</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>11.25</v>
       </c>
-      <c r="E140" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="F140" t="n">
+      <c r="E140">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="F140">
         <v>31.1</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>26</v>
       </c>
@@ -3252,17 +3272,17 @@
       <c r="C141" t="s">
         <v>9</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>20.65</v>
       </c>
-      <c r="E141" t="n">
+      <c r="E141">
         <v>37.4</v>
       </c>
-      <c r="F141" t="n">
+      <c r="F141">
         <v>28.85</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>26</v>
       </c>
@@ -3272,17 +3292,17 @@
       <c r="C142" t="s">
         <v>8</v>
       </c>
-      <c r="D142" t="n">
-        <v>18.1</v>
-      </c>
-      <c r="E142" t="n">
+      <c r="D142">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="E142">
         <v>24.95</v>
       </c>
-      <c r="F142" t="n">
+      <c r="F142">
         <v>27.75</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>26</v>
       </c>
@@ -3292,17 +3312,17 @@
       <c r="C143" t="s">
         <v>9</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>12.5</v>
       </c>
-      <c r="E143" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="F143" t="n">
+      <c r="E143">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="F143">
         <v>26.4</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>26</v>
       </c>
@@ -3312,17 +3332,17 @@
       <c r="C144" t="s">
         <v>8</v>
       </c>
-      <c r="D144" t="n">
-        <v>19.6</v>
-      </c>
-      <c r="E144" t="n">
+      <c r="D144">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="E144">
         <v>32.85</v>
       </c>
-      <c r="F144" t="n">
+      <c r="F144">
         <v>31.25</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>26</v>
       </c>
@@ -3332,17 +3352,17 @@
       <c r="C145" t="s">
         <v>9</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>30.95</v>
       </c>
-      <c r="E145" t="n">
+      <c r="E145">
         <v>41.75</v>
       </c>
-      <c r="F145" t="n">
+      <c r="F145">
         <v>31.2</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>26</v>
       </c>
@@ -3352,17 +3372,17 @@
       <c r="C146" t="s">
         <v>8</v>
       </c>
-      <c r="D146" t="n">
-        <v>16.9</v>
-      </c>
-      <c r="E146" t="n">
+      <c r="D146">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="E146">
         <v>22.85</v>
       </c>
-      <c r="F146" t="n">
+      <c r="F146">
         <v>27.5</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>26</v>
       </c>
@@ -3372,17 +3392,17 @@
       <c r="C147" t="s">
         <v>9</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>28.95</v>
       </c>
-      <c r="E147" t="n">
+      <c r="E147">
         <v>55.95</v>
       </c>
-      <c r="F147" t="n">
+      <c r="F147">
         <v>23.6</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>26</v>
       </c>
@@ -3392,17 +3412,17 @@
       <c r="C148" t="s">
         <v>8</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>14.5</v>
       </c>
-      <c r="E148" t="n">
+      <c r="E148">
         <v>27.65</v>
       </c>
-      <c r="F148" t="n">
+      <c r="F148">
         <v>23.75</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>26</v>
       </c>
@@ -3412,17 +3432,17 @@
       <c r="C149" t="s">
         <v>9</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>23.35</v>
       </c>
-      <c r="E149" t="n">
-        <v>32.55</v>
-      </c>
-      <c r="F149" t="n">
+      <c r="E149">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="F149">
         <v>27.8</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>26</v>
       </c>
@@ -3432,17 +3452,17 @@
       <c r="C150" t="s">
         <v>8</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>2.6</v>
       </c>
-      <c r="E150" t="n">
+      <c r="E150">
         <v>14.85</v>
       </c>
-      <c r="F150" t="n">
+      <c r="F150">
         <v>36.5</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>26</v>
       </c>
@@ -3452,17 +3472,17 @@
       <c r="C151" t="s">
         <v>9</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>13.2</v>
       </c>
-      <c r="E151" t="n">
+      <c r="E151">
         <v>26.55</v>
       </c>
-      <c r="F151" t="n">
+      <c r="F151">
         <v>37.1</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>26</v>
       </c>
@@ -3472,17 +3492,17 @@
       <c r="C152" t="s">
         <v>8</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>17.55</v>
       </c>
-      <c r="E152" t="n">
+      <c r="E152">
         <v>32</v>
       </c>
-      <c r="F152" t="n">
+      <c r="F152">
         <v>35.5</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>26</v>
       </c>
@@ -3492,17 +3512,17 @@
       <c r="C153" t="s">
         <v>9</v>
       </c>
-      <c r="D153" t="n">
-        <v>8.3</v>
-      </c>
-      <c r="E153" t="n">
+      <c r="D153">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E153">
         <v>16.25</v>
       </c>
-      <c r="F153" t="n">
+      <c r="F153">
         <v>39.65</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>26</v>
       </c>
@@ -3512,17 +3532,17 @@
       <c r="C154" t="s">
         <v>8</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>15.6</v>
       </c>
-      <c r="E154" t="n">
+      <c r="E154">
         <v>24.3</v>
       </c>
-      <c r="F154" t="n">
+      <c r="F154">
         <v>29.8</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>26</v>
       </c>
@@ -3532,17 +3552,17 @@
       <c r="C155" t="s">
         <v>9</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>21.4</v>
       </c>
-      <c r="E155" t="n">
+      <c r="E155">
         <v>40.85</v>
       </c>
-      <c r="F155" t="n">
-        <v>33.8</v>
-      </c>
-    </row>
-    <row r="156">
+      <c r="F155">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>26</v>
       </c>
@@ -3552,17 +3572,17 @@
       <c r="C156" t="s">
         <v>8</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>4.7</v>
       </c>
-      <c r="E156" t="n">
+      <c r="E156">
         <v>17.7</v>
       </c>
-      <c r="F156" t="n">
+      <c r="F156">
         <v>25.95</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>26</v>
       </c>
@@ -3572,17 +3592,17 @@
       <c r="C157" t="s">
         <v>9</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>28.3</v>
       </c>
-      <c r="E157" t="n">
+      <c r="E157">
         <v>39.65</v>
       </c>
-      <c r="F157" t="n">
+      <c r="F157">
         <v>22.6</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>27</v>
       </c>
@@ -3592,17 +3612,17 @@
       <c r="C158" t="s">
         <v>8</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>37.78</v>
       </c>
-      <c r="E158" t="n">
+      <c r="E158">
         <v>16.3</v>
       </c>
-      <c r="F158" t="n">
+      <c r="F158">
         <v>19.72</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>27</v>
       </c>
@@ -3612,17 +3632,17 @@
       <c r="C159" t="s">
         <v>9</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>43.26</v>
       </c>
-      <c r="E159" t="n">
+      <c r="E159">
         <v>40</v>
       </c>
-      <c r="F159" t="n">
+      <c r="F159">
         <v>21.3</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>27</v>
       </c>
@@ -3632,17 +3652,17 @@
       <c r="C160" t="s">
         <v>8</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>57.04</v>
       </c>
-      <c r="E160" t="n">
+      <c r="E160">
         <v>53.33</v>
       </c>
-      <c r="F160" t="n">
+      <c r="F160">
         <v>23.15</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>27</v>
       </c>
@@ -3652,17 +3672,17 @@
       <c r="C161" t="s">
         <v>9</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>51.41</v>
       </c>
-      <c r="E161" t="n">
+      <c r="E161">
         <v>54.81</v>
       </c>
-      <c r="F161" t="n">
+      <c r="F161">
         <v>23.11</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>27</v>
       </c>
@@ -3672,17 +3692,17 @@
       <c r="C162" t="s">
         <v>8</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>31.85</v>
       </c>
-      <c r="E162" t="n">
+      <c r="E162">
         <v>48.89</v>
       </c>
-      <c r="F162" t="n">
+      <c r="F162">
         <v>27.69</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>27</v>
       </c>
@@ -3692,17 +3712,17 @@
       <c r="C163" t="s">
         <v>9</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>22.22</v>
       </c>
-      <c r="E163" t="n">
+      <c r="E163">
         <v>56.3</v>
       </c>
-      <c r="F163" t="n">
+      <c r="F163">
         <v>25.45</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>27</v>
       </c>
@@ -3712,17 +3732,17 @@
       <c r="C164" t="s">
         <v>8</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>35.56</v>
       </c>
-      <c r="E164" t="n">
+      <c r="E164">
         <v>28.15</v>
       </c>
-      <c r="F164" t="n">
-        <v>33.66</v>
-      </c>
-    </row>
-    <row r="165">
+      <c r="F164">
+        <v>33.659999999999997</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>27</v>
       </c>
@@ -3732,17 +3752,17 @@
       <c r="C165" t="s">
         <v>9</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>28.15</v>
       </c>
-      <c r="E165" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="F165" t="n">
+      <c r="E165">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="F165">
         <v>29.5</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>27</v>
       </c>
@@ -3752,17 +3772,17 @@
       <c r="C166" t="s">
         <v>8</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>42.22</v>
       </c>
-      <c r="E166" t="n">
+      <c r="E166">
         <v>34.07</v>
       </c>
-      <c r="F166" t="n">
+      <c r="F166">
         <v>24.45</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>27</v>
       </c>
@@ -3772,17 +3792,17 @@
       <c r="C167" t="s">
         <v>9</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>11.56</v>
       </c>
-      <c r="E167" t="n">
+      <c r="E167">
         <v>47.41</v>
       </c>
-      <c r="F167" t="n">
+      <c r="F167">
         <v>24.85</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>27</v>
       </c>
@@ -3792,17 +3812,17 @@
       <c r="C168" t="s">
         <v>8</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>12.59</v>
       </c>
-      <c r="E168" t="n">
+      <c r="E168">
         <v>42.96</v>
       </c>
-      <c r="F168" t="n">
+      <c r="F168">
         <v>25.79</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>27</v>
       </c>
@@ -3812,17 +3832,17 @@
       <c r="C169" t="s">
         <v>9</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>5.19</v>
       </c>
-      <c r="E169" t="n">
+      <c r="E169">
         <v>44.44</v>
       </c>
-      <c r="F169" t="n">
+      <c r="F169">
         <v>26.77</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>27</v>
       </c>
@@ -3832,17 +3852,17 @@
       <c r="C170" t="s">
         <v>8</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>11.11</v>
       </c>
-      <c r="E170" t="n">
+      <c r="E170">
         <v>53.33</v>
       </c>
-      <c r="F170" t="n">
-        <v>33.8</v>
-      </c>
-    </row>
-    <row r="171">
+      <c r="F170">
+        <v>33.799999999999997</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>27</v>
       </c>
@@ -3852,17 +3872,17 @@
       <c r="C171" t="s">
         <v>9</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>25.19</v>
       </c>
-      <c r="E171" t="n">
-        <v>74.07</v>
-      </c>
-      <c r="F171" t="n">
+      <c r="E171">
+        <v>74.069999999999993</v>
+      </c>
+      <c r="F171">
         <v>32.67</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>27</v>
       </c>
@@ -3872,17 +3892,17 @@
       <c r="C172" t="s">
         <v>8</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>34.07</v>
       </c>
-      <c r="E172" t="n">
+      <c r="E172">
         <v>35.56</v>
       </c>
-      <c r="F172" t="n">
+      <c r="F172">
         <v>25.65</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>27</v>
       </c>
@@ -3892,17 +3912,17 @@
       <c r="C173" t="s">
         <v>9</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>24.44</v>
       </c>
-      <c r="E173" t="n">
+      <c r="E173">
         <v>63.7</v>
       </c>
-      <c r="F173" t="n">
+      <c r="F173">
         <v>27.29</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>27</v>
       </c>
@@ -3912,17 +3932,17 @@
       <c r="C174" t="s">
         <v>8</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>28.15</v>
       </c>
-      <c r="E174" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="F174" t="n">
+      <c r="E174">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="F174">
         <v>23.61</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>27</v>
       </c>
@@ -3932,17 +3952,17 @@
       <c r="C175" t="s">
         <v>9</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>33.33</v>
       </c>
-      <c r="E175" t="n">
+      <c r="E175">
         <v>60.74</v>
       </c>
-      <c r="F175" t="n">
+      <c r="F175">
         <v>23.61</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>27</v>
       </c>
@@ -3952,17 +3972,17 @@
       <c r="C176" t="s">
         <v>8</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>17.78</v>
       </c>
-      <c r="E176" t="n">
+      <c r="E176">
         <v>54.81</v>
       </c>
-      <c r="F176" t="n">
+      <c r="F176">
         <v>31.69</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>27</v>
       </c>
@@ -3972,17 +3992,17 @@
       <c r="C177" t="s">
         <v>9</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>8.89</v>
       </c>
-      <c r="E177" t="n">
-        <v>79.26</v>
-      </c>
-      <c r="F177" t="n">
+      <c r="E177">
+        <v>79.260000000000005</v>
+      </c>
+      <c r="F177">
         <v>31.04</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>27</v>
       </c>
@@ -3992,17 +4012,17 @@
       <c r="C178" t="s">
         <v>8</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>10.37</v>
       </c>
-      <c r="E178" t="n">
+      <c r="E178">
         <v>82.96</v>
       </c>
-      <c r="F178" t="n">
+      <c r="F178">
         <v>32.47</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>27</v>
       </c>
@@ -4012,17 +4032,17 @@
       <c r="C179" t="s">
         <v>9</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>20.74</v>
       </c>
-      <c r="E179" t="n">
-        <v>133.33</v>
-      </c>
-      <c r="F179" t="n">
+      <c r="E179">
+        <v>133.33000000000001</v>
+      </c>
+      <c r="F179">
         <v>32.74</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>27</v>
       </c>
@@ -4032,17 +4052,17 @@
       <c r="C180" t="s">
         <v>8</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>37.78</v>
       </c>
-      <c r="E180" t="n">
+      <c r="E180">
         <v>47.41</v>
       </c>
-      <c r="F180" t="n">
+      <c r="F180">
         <v>30.63</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>27</v>
       </c>
@@ -4052,17 +4072,17 @@
       <c r="C181" t="s">
         <v>9</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>44.74</v>
       </c>
-      <c r="E181" t="n">
+      <c r="E181">
         <v>54.81</v>
       </c>
-      <c r="F181" t="n">
+      <c r="F181">
         <v>29.7</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>27</v>
       </c>
@@ -4072,17 +4092,17 @@
       <c r="C182" t="s">
         <v>8</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>28.89</v>
       </c>
-      <c r="E182" t="n">
+      <c r="E182">
         <v>22.22</v>
       </c>
-      <c r="F182" t="n">
+      <c r="F182">
         <v>28.77</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>27</v>
       </c>
@@ -4092,17 +4112,17 @@
       <c r="C183" t="s">
         <v>9</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>47.41</v>
       </c>
-      <c r="E183" t="n">
+      <c r="E183">
         <v>60.74</v>
       </c>
-      <c r="F183" t="n">
+      <c r="F183">
         <v>29.9</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>28</v>
       </c>
@@ -4112,17 +4132,17 @@
       <c r="C184" t="s">
         <v>8</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>16.63</v>
       </c>
-      <c r="E184" t="n">
+      <c r="E184">
         <v>50</v>
       </c>
-      <c r="F184" t="n">
+      <c r="F184">
         <v>20</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>28</v>
       </c>
@@ -4132,17 +4152,17 @@
       <c r="C185" t="s">
         <v>9</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>8.24</v>
       </c>
-      <c r="E185" t="n">
+      <c r="E185">
         <v>43.5</v>
       </c>
-      <c r="F185" t="n">
+      <c r="F185">
         <v>23.5</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>28</v>
       </c>
@@ -4152,17 +4172,17 @@
       <c r="C186" t="s">
         <v>8</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>33.75</v>
       </c>
-      <c r="E186" t="n">
+      <c r="E186">
         <v>46</v>
       </c>
-      <c r="F186" t="n">
+      <c r="F186">
         <v>28</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>28</v>
       </c>
@@ -4172,17 +4192,17 @@
       <c r="C187" t="s">
         <v>9</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>37.17</v>
       </c>
-      <c r="E187" t="n">
+      <c r="E187">
         <v>41.5</v>
       </c>
-      <c r="F187" t="n">
+      <c r="F187">
         <v>28</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>28</v>
       </c>
@@ -4192,17 +4212,17 @@
       <c r="C188" t="s">
         <v>8</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>40.24</v>
       </c>
-      <c r="E188" t="n">
+      <c r="E188">
         <v>50.2</v>
       </c>
-      <c r="F188" t="n">
+      <c r="F188">
         <v>24.5</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>28</v>
       </c>
@@ -4212,17 +4232,17 @@
       <c r="C189" t="s">
         <v>9</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>38.21</v>
       </c>
-      <c r="E189" t="n">
+      <c r="E189">
         <v>56</v>
       </c>
-      <c r="F189" t="n">
+      <c r="F189">
         <v>22</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>28</v>
       </c>
@@ -4232,17 +4252,17 @@
       <c r="C190" t="s">
         <v>8</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>29.99</v>
       </c>
-      <c r="E190" t="n">
+      <c r="E190">
         <v>45</v>
       </c>
-      <c r="F190" t="n">
+      <c r="F190">
         <v>29.5</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>28</v>
       </c>
@@ -4252,17 +4272,17 @@
       <c r="C191" t="s">
         <v>9</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>31.67</v>
       </c>
-      <c r="E191" t="n">
+      <c r="E191">
         <v>40.5</v>
       </c>
-      <c r="F191" t="n">
+      <c r="F191">
         <v>29.5</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>28</v>
       </c>
@@ -4272,17 +4292,17 @@
       <c r="C192" t="s">
         <v>8</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>12.6</v>
       </c>
-      <c r="E192" t="n">
+      <c r="E192">
         <v>42</v>
       </c>
-      <c r="F192" t="n">
+      <c r="F192">
         <v>26</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>28</v>
       </c>
@@ -4292,17 +4312,17 @@
       <c r="C193" t="s">
         <v>9</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>9.9</v>
       </c>
-      <c r="E193" t="n">
+      <c r="E193">
         <v>38.4</v>
       </c>
-      <c r="F193" t="n">
+      <c r="F193">
         <v>28</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>28</v>
       </c>
@@ -4312,17 +4332,17 @@
       <c r="C194" t="s">
         <v>8</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>12.96</v>
       </c>
-      <c r="E194" t="n">
+      <c r="E194">
         <v>70</v>
       </c>
-      <c r="F194" t="n">
+      <c r="F194">
         <v>29</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>28</v>
       </c>
@@ -4332,17 +4352,17 @@
       <c r="C195" t="s">
         <v>9</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>15.48</v>
       </c>
-      <c r="E195" t="n">
+      <c r="E195">
         <v>63.4</v>
       </c>
-      <c r="F195" t="n">
+      <c r="F195">
         <v>31</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>28</v>
       </c>
@@ -4352,17 +4372,17 @@
       <c r="C196" t="s">
         <v>8</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>26.92</v>
       </c>
-      <c r="E196" t="n">
+      <c r="E196">
         <v>41</v>
       </c>
-      <c r="F196" t="n">
+      <c r="F196">
         <v>28</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>28</v>
       </c>
@@ -4372,17 +4392,17 @@
       <c r="C197" t="s">
         <v>9</v>
       </c>
-      <c r="D197" t="n">
-        <v>33.73</v>
-      </c>
-      <c r="E197" t="n">
+      <c r="D197">
+        <v>33.729999999999997</v>
+      </c>
+      <c r="E197">
         <v>37.6</v>
       </c>
-      <c r="F197" t="n">
+      <c r="F197">
         <v>28</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>28</v>
       </c>
@@ -4392,17 +4412,17 @@
       <c r="C198" t="s">
         <v>8</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>35.04</v>
       </c>
-      <c r="E198" t="n">
+      <c r="E198">
         <v>58</v>
       </c>
-      <c r="F198" t="n">
+      <c r="F198">
         <v>27</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>28</v>
       </c>
@@ -4412,17 +4432,17 @@
       <c r="C199" t="s">
         <v>9</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>23.42</v>
       </c>
-      <c r="E199" t="n">
+      <c r="E199">
         <v>51</v>
       </c>
-      <c r="F199" t="n">
+      <c r="F199">
         <v>26</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>28</v>
       </c>
@@ -4432,17 +4452,17 @@
       <c r="C200" t="s">
         <v>8</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>18.28</v>
       </c>
-      <c r="E200" t="n">
+      <c r="E200">
         <v>52.6</v>
       </c>
-      <c r="F200" t="n">
+      <c r="F200">
         <v>26</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>28</v>
       </c>
@@ -4452,17 +4472,17 @@
       <c r="C201" t="s">
         <v>9</v>
       </c>
-      <c r="D201" t="n">
-        <v>18.19</v>
-      </c>
-      <c r="E201" t="n">
+      <c r="D201">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="E201">
         <v>47.6</v>
       </c>
-      <c r="F201" t="n">
+      <c r="F201">
         <v>27</v>
       </c>
     </row>
-    <row r="202">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>28</v>
       </c>
@@ -4472,17 +4492,17 @@
       <c r="C202" t="s">
         <v>8</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>8.18</v>
       </c>
-      <c r="E202" t="n">
+      <c r="E202">
         <v>65</v>
       </c>
-      <c r="F202" t="n">
+      <c r="F202">
         <v>34.5</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>28</v>
       </c>
@@ -4492,17 +4512,17 @@
       <c r="C203" t="s">
         <v>9</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>6.84</v>
       </c>
-      <c r="E203" t="n">
+      <c r="E203">
         <v>60</v>
       </c>
-      <c r="F203" t="n">
+      <c r="F203">
         <v>34</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>28</v>
       </c>
@@ -4512,17 +4532,17 @@
       <c r="C204" t="s">
         <v>8</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>2.54</v>
       </c>
-      <c r="E204" t="n">
+      <c r="E204">
         <v>27.5</v>
       </c>
-      <c r="F204" t="n">
+      <c r="F204">
         <v>32.5</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>28</v>
       </c>
@@ -4532,17 +4552,17 @@
       <c r="C205" t="s">
         <v>9</v>
       </c>
-      <c r="D205" t="n">
-        <v>4.35</v>
-      </c>
-      <c r="E205" t="n">
+      <c r="D205">
+        <v>4.3499999999999996</v>
+      </c>
+      <c r="E205">
         <v>30.6</v>
       </c>
-      <c r="F205" t="n">
+      <c r="F205">
         <v>31.5</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>28</v>
       </c>
@@ -4552,17 +4572,17 @@
       <c r="C206" t="s">
         <v>8</v>
       </c>
-      <c r="D206" t="n">
-        <v>40.88</v>
-      </c>
-      <c r="E206" t="n">
-        <v>20.4</v>
-      </c>
-      <c r="F206" t="n">
+      <c r="D206">
+        <v>40.880000000000003</v>
+      </c>
+      <c r="E206">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F206">
         <v>30</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>28</v>
       </c>
@@ -4572,17 +4592,17 @@
       <c r="C207" t="s">
         <v>9</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>37.78</v>
       </c>
-      <c r="E207" t="n">
+      <c r="E207">
         <v>23.6</v>
       </c>
-      <c r="F207" t="n">
+      <c r="F207">
         <v>28.5</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>28</v>
       </c>
@@ -4592,17 +4612,17 @@
       <c r="C208" t="s">
         <v>8</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>9.26</v>
       </c>
-      <c r="E208" t="n">
+      <c r="E208">
         <v>54</v>
       </c>
-      <c r="F208" t="n">
+      <c r="F208">
         <v>23.5</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>28</v>
       </c>
@@ -4612,17 +4632,17 @@
       <c r="C209" t="s">
         <v>9</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>22.76</v>
       </c>
-      <c r="E209" t="n">
+      <c r="E209">
         <v>60</v>
       </c>
-      <c r="F209" t="n">
+      <c r="F209">
         <v>21.5</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>29</v>
       </c>
@@ -4632,17 +4652,17 @@
       <c r="C210" t="s">
         <v>8</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>27.56</v>
       </c>
-      <c r="E210" t="n">
+      <c r="E210">
         <v>28.3</v>
       </c>
-      <c r="F210" t="n">
+      <c r="F210">
         <v>31.87</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>29</v>
       </c>
@@ -4652,17 +4672,17 @@
       <c r="C211" t="s">
         <v>9</v>
       </c>
-      <c r="D211" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="E211" t="n">
+      <c r="D211">
+        <v>2.0699999999999998</v>
+      </c>
+      <c r="E211">
         <v>22.07</v>
       </c>
-      <c r="F211" t="n">
+      <c r="F211">
         <v>20.56</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>29</v>
       </c>
@@ -4672,17 +4692,17 @@
       <c r="C212" t="s">
         <v>8</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>43.11</v>
       </c>
-      <c r="E212" t="n">
+      <c r="E212">
         <v>23.85</v>
       </c>
-      <c r="F212" t="n">
+      <c r="F212">
         <v>19.98</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>29</v>
       </c>
@@ -4692,17 +4712,17 @@
       <c r="C213" t="s">
         <v>9</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>14.52</v>
       </c>
-      <c r="E213" t="n">
+      <c r="E213">
         <v>26.67</v>
       </c>
-      <c r="F213" t="n">
+      <c r="F213">
         <v>22.58</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>29</v>
       </c>
@@ -4712,17 +4732,17 @@
       <c r="C214" t="s">
         <v>8</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>30.81</v>
       </c>
-      <c r="E214" t="n">
+      <c r="E214">
         <v>28.44</v>
       </c>
-      <c r="F214" t="n">
+      <c r="F214">
         <v>25.1</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>29</v>
       </c>
@@ -4732,17 +4752,17 @@
       <c r="C215" t="s">
         <v>9</v>
       </c>
-      <c r="D215" t="n">
-        <v>17.19</v>
-      </c>
-      <c r="E215" t="n">
+      <c r="D215">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="E215">
         <v>36.44</v>
       </c>
-      <c r="F215" t="n">
+      <c r="F215">
         <v>22.11</v>
       </c>
     </row>
-    <row r="216">
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>29</v>
       </c>
@@ -4752,17 +4772,17 @@
       <c r="C216" t="s">
         <v>8</v>
       </c>
-      <c r="D216" t="n">
-        <v>9.63</v>
-      </c>
-      <c r="E216" t="n">
+      <c r="D216">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="E216">
         <v>26.96</v>
       </c>
-      <c r="F216" t="n">
+      <c r="F216">
         <v>28.02</v>
       </c>
     </row>
-    <row r="217">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>29</v>
       </c>
@@ -4772,17 +4792,17 @@
       <c r="C217" t="s">
         <v>9</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>12.74</v>
       </c>
-      <c r="E217" t="n">
+      <c r="E217">
         <v>49.72</v>
       </c>
-      <c r="F217" t="n">
+      <c r="F217">
         <v>27.51</v>
       </c>
     </row>
-    <row r="218">
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>29</v>
       </c>
@@ -4792,17 +4812,17 @@
       <c r="C218" t="s">
         <v>8</v>
       </c>
-      <c r="D218" t="n">
-        <v>36.59</v>
-      </c>
-      <c r="E218" t="n">
+      <c r="D218">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="E218">
         <v>22.52</v>
       </c>
-      <c r="F218" t="n">
+      <c r="F218">
         <v>23.45</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>29</v>
       </c>
@@ -4812,17 +4832,17 @@
       <c r="C219" t="s">
         <v>9</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>18.22</v>
       </c>
-      <c r="E219" t="n">
+      <c r="E219">
         <v>41.63</v>
       </c>
-      <c r="F219" t="n">
+      <c r="F219">
         <v>25.1</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>29</v>
       </c>
@@ -4832,17 +4852,17 @@
       <c r="C220" t="s">
         <v>8</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>14.07</v>
       </c>
-      <c r="E220" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F220" t="n">
+      <c r="E220">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="F220">
         <v>24.48</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>29</v>
       </c>
@@ -4852,17 +4872,17 @@
       <c r="C221" t="s">
         <v>9</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>18.52</v>
       </c>
-      <c r="E221" t="n">
+      <c r="E221">
         <v>37.78</v>
       </c>
-      <c r="F221" t="n">
+      <c r="F221">
         <v>29.01</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>29</v>
       </c>
@@ -4872,17 +4892,17 @@
       <c r="C222" t="s">
         <v>8</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>5.63</v>
       </c>
-      <c r="E222" t="n">
+      <c r="E222">
         <v>37.33</v>
       </c>
-      <c r="F222" t="n">
+      <c r="F222">
         <v>30.01</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>29</v>
       </c>
@@ -4892,17 +4912,17 @@
       <c r="C223" t="s">
         <v>9</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>17.63</v>
       </c>
-      <c r="E223" t="n">
+      <c r="E223">
         <v>40</v>
       </c>
-      <c r="F223" t="n">
+      <c r="F223">
         <v>29.76</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>29</v>
       </c>
@@ -4912,17 +4932,17 @@
       <c r="C224" t="s">
         <v>8</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>26.07</v>
       </c>
-      <c r="E224" t="n">
-        <v>20.15</v>
-      </c>
-      <c r="F224" t="n">
+      <c r="E224">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="F224">
         <v>21.69</v>
       </c>
     </row>
-    <row r="225">
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>29</v>
       </c>
@@ -4932,17 +4952,17 @@
       <c r="C225" t="s">
         <v>9</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>24.44</v>
       </c>
-      <c r="E225" t="n">
+      <c r="E225">
         <v>19.11</v>
       </c>
-      <c r="F225" t="n">
+      <c r="F225">
         <v>23.8</v>
       </c>
     </row>
-    <row r="226">
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>29</v>
       </c>
@@ -4952,17 +4972,17 @@
       <c r="C226" t="s">
         <v>8</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>21.48</v>
       </c>
-      <c r="E226" t="n">
+      <c r="E226">
         <v>17.63</v>
       </c>
-      <c r="F226" t="n">
+      <c r="F226">
         <v>24.85</v>
       </c>
     </row>
-    <row r="227">
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>29</v>
       </c>
@@ -4972,17 +4992,17 @@
       <c r="C227" t="s">
         <v>9</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>12.15</v>
       </c>
-      <c r="E227" t="n">
+      <c r="E227">
         <v>22.67</v>
       </c>
-      <c r="F227" t="n">
+      <c r="F227">
         <v>24.8</v>
       </c>
     </row>
-    <row r="228">
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>29</v>
       </c>
@@ -4992,17 +5012,17 @@
       <c r="C228" t="s">
         <v>8</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>4.3</v>
       </c>
-      <c r="E228" t="n">
+      <c r="E228">
         <v>25.78</v>
       </c>
-      <c r="F228" t="n">
+      <c r="F228">
         <v>27.08</v>
       </c>
     </row>
-    <row r="229">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>29</v>
       </c>
@@ -5012,17 +5032,17 @@
       <c r="C229" t="s">
         <v>9</v>
       </c>
-      <c r="D229" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="E229" t="n">
+      <c r="D229">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E229">
         <v>25.19</v>
       </c>
-      <c r="F229" t="n">
+      <c r="F229">
         <v>32.04</v>
       </c>
     </row>
-    <row r="230">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>29</v>
       </c>
@@ -5032,17 +5052,17 @@
       <c r="C230" t="s">
         <v>8</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>17.78</v>
       </c>
-      <c r="E230" t="n">
+      <c r="E230">
         <v>33.33</v>
       </c>
-      <c r="F230" t="n">
+      <c r="F230">
         <v>29.81</v>
       </c>
     </row>
-    <row r="231">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>29</v>
       </c>
@@ -5052,17 +5072,17 @@
       <c r="C231" t="s">
         <v>9</v>
       </c>
-      <c r="D231" t="n">
-        <v>4.89</v>
-      </c>
-      <c r="E231" t="n">
+      <c r="D231">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="E231">
         <v>59.26</v>
       </c>
-      <c r="F231" t="n">
+      <c r="F231">
         <v>32</v>
       </c>
     </row>
-    <row r="232">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>29</v>
       </c>
@@ -5072,17 +5092,17 @@
       <c r="C232" t="s">
         <v>8</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>17.04</v>
       </c>
-      <c r="E232" t="n">
+      <c r="E232">
         <v>8.74</v>
       </c>
-      <c r="F232" t="n">
+      <c r="F232">
         <v>28.27</v>
       </c>
     </row>
-    <row r="233">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>29</v>
       </c>
@@ -5092,17 +5112,17 @@
       <c r="C233" t="s">
         <v>9</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>31.11</v>
       </c>
-      <c r="E233" t="n">
+      <c r="E233">
         <v>22.52</v>
       </c>
-      <c r="F233" t="n">
+      <c r="F233">
         <v>27.19</v>
       </c>
     </row>
-    <row r="234">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>29</v>
       </c>
@@ -5112,17 +5132,17 @@
       <c r="C234" t="s">
         <v>8</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>17.48</v>
       </c>
-      <c r="E234" t="n">
+      <c r="E234">
         <v>16.3</v>
       </c>
-      <c r="F234" t="n">
+      <c r="F234">
         <v>21.27</v>
       </c>
     </row>
-    <row r="235">
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>29</v>
       </c>
@@ -5132,17 +5152,17 @@
       <c r="C235" t="s">
         <v>9</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>13.19</v>
       </c>
-      <c r="E235" t="n">
+      <c r="E235">
         <v>12.89</v>
       </c>
-      <c r="F235" t="n">
+      <c r="F235">
         <v>23.61</v>
       </c>
     </row>
-    <row r="236">
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>30</v>
       </c>
@@ -5152,17 +5172,17 @@
       <c r="C236" t="s">
         <v>8</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>23.7</v>
       </c>
-      <c r="E236" t="n">
+      <c r="E236">
         <v>10.67</v>
       </c>
-      <c r="F236" t="n">
+      <c r="F236">
         <v>26.99</v>
       </c>
     </row>
-    <row r="237">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>30</v>
       </c>
@@ -5172,17 +5192,17 @@
       <c r="C237" t="s">
         <v>9</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>26.96</v>
       </c>
-      <c r="E237" t="n">
+      <c r="E237">
         <v>17.78</v>
       </c>
-      <c r="F237" t="n">
+      <c r="F237">
         <v>24.88</v>
       </c>
     </row>
-    <row r="238">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>30</v>
       </c>
@@ -5192,17 +5212,17 @@
       <c r="C238" t="s">
         <v>8</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>27.85</v>
       </c>
-      <c r="E238" t="n">
+      <c r="E238">
         <v>21.04</v>
       </c>
-      <c r="F238" t="n">
+      <c r="F238">
         <v>28.57</v>
       </c>
     </row>
-    <row r="239">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>30</v>
       </c>
@@ -5212,17 +5232,17 @@
       <c r="C239" t="s">
         <v>9</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>29.19</v>
       </c>
-      <c r="E239" t="n">
+      <c r="E239">
         <v>21.33</v>
       </c>
-      <c r="F239" t="n">
+      <c r="F239">
         <v>27.82</v>
       </c>
     </row>
-    <row r="240">
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>30</v>
       </c>
@@ -5232,17 +5252,17 @@
       <c r="C240" t="s">
         <v>8</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>41.33</v>
       </c>
-      <c r="E240" t="n">
+      <c r="E240">
         <v>22.81</v>
       </c>
-      <c r="F240" t="n">
-        <v>33.37</v>
-      </c>
-    </row>
-    <row r="241">
+      <c r="F240">
+        <v>33.369999999999997</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>30</v>
       </c>
@@ -5252,17 +5272,17 @@
       <c r="C241" t="s">
         <v>9</v>
       </c>
-      <c r="D241" t="n">
-        <v>33.63</v>
-      </c>
-      <c r="E241" t="n">
+      <c r="D241">
+        <v>33.630000000000003</v>
+      </c>
+      <c r="E241">
         <v>15.41</v>
       </c>
-      <c r="F241" t="n">
+      <c r="F241">
         <v>34.1</v>
       </c>
     </row>
-    <row r="242">
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>30</v>
       </c>
@@ -5272,17 +5292,17 @@
       <c r="C242" t="s">
         <v>8</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>51.11</v>
       </c>
-      <c r="E242" t="n">
+      <c r="E242">
         <v>17.04</v>
       </c>
-      <c r="F242" t="n">
+      <c r="F242">
         <v>37.93</v>
       </c>
     </row>
-    <row r="243">
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>30</v>
       </c>
@@ -5292,17 +5312,17 @@
       <c r="C243" t="s">
         <v>9</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>44</v>
       </c>
-      <c r="E243" t="n">
+      <c r="E243">
         <v>24.59</v>
       </c>
-      <c r="F243" t="n">
-        <v>36.88</v>
-      </c>
-    </row>
-    <row r="244">
+      <c r="F243">
+        <v>36.880000000000003</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>30</v>
       </c>
@@ -5312,17 +5332,17 @@
       <c r="C244" t="s">
         <v>8</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>43.85</v>
       </c>
-      <c r="E244" t="n">
+      <c r="E244">
         <v>17.93</v>
       </c>
-      <c r="F244" t="n">
+      <c r="F244">
         <v>31.4</v>
       </c>
     </row>
-    <row r="245">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>30</v>
       </c>
@@ -5332,17 +5352,17 @@
       <c r="C245" t="s">
         <v>9</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>44.89</v>
       </c>
-      <c r="E245" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="F245" t="n">
+      <c r="E245">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="F245">
         <v>29.89</v>
       </c>
     </row>
-    <row r="246">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>30</v>
       </c>
@@ -5352,17 +5372,17 @@
       <c r="C246" t="s">
         <v>8</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>12.59</v>
       </c>
-      <c r="E246" t="n">
+      <c r="E246">
         <v>5.78</v>
       </c>
-      <c r="F246" t="n">
+      <c r="F246">
         <v>35.25</v>
       </c>
     </row>
-    <row r="247">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>30</v>
       </c>
@@ -5372,17 +5392,17 @@
       <c r="C247" t="s">
         <v>9</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>11.7</v>
       </c>
-      <c r="E247" t="n">
+      <c r="E247">
         <v>9.19</v>
       </c>
-      <c r="F247" t="n">
+      <c r="F247">
         <v>28.83</v>
       </c>
     </row>
-    <row r="248">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>30</v>
       </c>
@@ -5392,17 +5412,17 @@
       <c r="C248" t="s">
         <v>8</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>22.96</v>
       </c>
-      <c r="E248" t="n">
+      <c r="E248">
         <v>6.52</v>
       </c>
-      <c r="F248" t="n">
+      <c r="F248">
         <v>34.76</v>
       </c>
     </row>
-    <row r="249">
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>30</v>
       </c>
@@ -5412,17 +5432,17 @@
       <c r="C249" t="s">
         <v>9</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>24.44</v>
       </c>
-      <c r="E249" t="n">
+      <c r="E249">
         <v>13.63</v>
       </c>
-      <c r="F249" t="n">
+      <c r="F249">
         <v>30.32</v>
       </c>
     </row>
-    <row r="250">
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>30</v>
       </c>
@@ -5432,17 +5452,17 @@
       <c r="C250" t="s">
         <v>8</v>
       </c>
-      <c r="D250" t="n">
-        <v>8</v>
-      </c>
-      <c r="E250" t="n">
+      <c r="D250">
+        <v>8</v>
+      </c>
+      <c r="E250">
         <v>3.7</v>
       </c>
-      <c r="F250" t="n">
+      <c r="F250">
         <v>26.12</v>
       </c>
     </row>
-    <row r="251">
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>30</v>
       </c>
@@ -5452,17 +5472,17 @@
       <c r="C251" t="s">
         <v>9</v>
       </c>
-      <c r="D251" t="n">
-        <v>9.63</v>
-      </c>
-      <c r="E251" t="n">
+      <c r="D251">
+        <v>9.6300000000000008</v>
+      </c>
+      <c r="E251">
         <v>2.96</v>
       </c>
-      <c r="F251" t="n">
+      <c r="F251">
         <v>23.35</v>
       </c>
     </row>
-    <row r="252">
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>30</v>
       </c>
@@ -5472,17 +5492,17 @@
       <c r="C252" t="s">
         <v>8</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>14.96</v>
       </c>
-      <c r="E252" t="n">
+      <c r="E252">
         <v>9.48</v>
       </c>
-      <c r="F252" t="n">
+      <c r="F252">
         <v>33</v>
       </c>
     </row>
-    <row r="253">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>30</v>
       </c>
@@ -5492,17 +5512,17 @@
       <c r="C253" t="s">
         <v>9</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>31.7</v>
       </c>
-      <c r="E253" t="n">
-        <v>19.85</v>
-      </c>
-      <c r="F253" t="n">
+      <c r="E253">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="F253">
         <v>28.94</v>
       </c>
     </row>
-    <row r="254">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>30</v>
       </c>
@@ -5512,17 +5532,17 @@
       <c r="C254" t="s">
         <v>8</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>26.81</v>
       </c>
-      <c r="E254" t="n">
+      <c r="E254">
         <v>26.96</v>
       </c>
-      <c r="F254" t="n">
+      <c r="F254">
         <v>30.65</v>
       </c>
     </row>
-    <row r="255">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>30</v>
       </c>
@@ -5532,15 +5552,14 @@
       <c r="C255" t="s">
         <v>9</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>8.59</v>
       </c>
-      <c r="E255" t="n">
+      <c r="E255">
         <v>6.22</v>
       </c>
-      <c r="F255"/>
-    </row>
-    <row r="256">
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>30</v>
       </c>
@@ -5550,17 +5569,17 @@
       <c r="C256" t="s">
         <v>8</v>
       </c>
-      <c r="D256" t="n">
-        <v>9.04</v>
-      </c>
-      <c r="E256" t="n">
+      <c r="D256">
+        <v>9.0399999999999991</v>
+      </c>
+      <c r="E256">
         <v>16.89</v>
       </c>
-      <c r="F256" t="n">
+      <c r="F256">
         <v>33.93</v>
       </c>
     </row>
-    <row r="257">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>30</v>
       </c>
@@ -5570,17 +5589,17 @@
       <c r="C257" t="s">
         <v>9</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>6.07</v>
       </c>
-      <c r="E257" t="n">
+      <c r="E257">
         <v>16.3</v>
       </c>
-      <c r="F257" t="n">
-        <v>34.73</v>
-      </c>
-    </row>
-    <row r="258">
+      <c r="F257">
+        <v>34.729999999999997</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>30</v>
       </c>
@@ -5590,17 +5609,17 @@
       <c r="C258" t="s">
         <v>8</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>23.7</v>
       </c>
-      <c r="E258" t="n">
+      <c r="E258">
         <v>7.56</v>
       </c>
-      <c r="F258" t="n">
+      <c r="F258">
         <v>33.04</v>
       </c>
     </row>
-    <row r="259">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>30</v>
       </c>
@@ -5610,17 +5629,17 @@
       <c r="C259" t="s">
         <v>9</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>2.96</v>
       </c>
-      <c r="E259" t="n">
+      <c r="E259">
         <v>1.93</v>
       </c>
-      <c r="F259" t="n">
+      <c r="F259">
         <v>31.21</v>
       </c>
     </row>
-    <row r="260">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>30</v>
       </c>
@@ -5630,17 +5649,17 @@
       <c r="C260" t="s">
         <v>8</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>36.89</v>
       </c>
-      <c r="E260" t="n">
+      <c r="E260">
         <v>16.3</v>
       </c>
-      <c r="F260" t="n">
+      <c r="F260">
         <v>39.1</v>
       </c>
     </row>
-    <row r="261">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>30</v>
       </c>
@@ -5650,17 +5669,17 @@
       <c r="C261" t="s">
         <v>9</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>15.85</v>
       </c>
-      <c r="E261" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="F261" t="n">
+      <c r="E261">
+        <v>4.4400000000000004</v>
+      </c>
+      <c r="F261">
         <v>36.42</v>
       </c>
     </row>
-    <row r="262">
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>31</v>
       </c>
@@ -5670,17 +5689,17 @@
       <c r="C262" t="s">
         <v>8</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>7.05</v>
       </c>
-      <c r="E262" t="n">
+      <c r="E262">
         <v>11.25</v>
       </c>
-      <c r="F262" t="n">
+      <c r="F262">
         <v>30.6</v>
       </c>
     </row>
-    <row r="263">
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>31</v>
       </c>
@@ -5690,17 +5709,17 @@
       <c r="C263" t="s">
         <v>9</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>6.95</v>
       </c>
-      <c r="E263" t="n">
+      <c r="E263">
         <v>9.1</v>
       </c>
-      <c r="F263" t="n">
+      <c r="F263">
         <v>23.1</v>
       </c>
     </row>
-    <row r="264">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>31</v>
       </c>
@@ -5710,17 +5729,17 @@
       <c r="C264" t="s">
         <v>8</v>
       </c>
-      <c r="D264" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E264" t="n">
+      <c r="D264">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E264">
         <v>7.7</v>
       </c>
-      <c r="F264" t="n">
+      <c r="F264">
         <v>24.1</v>
       </c>
     </row>
-    <row r="265">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>31</v>
       </c>
@@ -5730,17 +5749,17 @@
       <c r="C265" t="s">
         <v>9</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>2.85</v>
       </c>
-      <c r="E265" t="n">
+      <c r="E265">
         <v>7.05</v>
       </c>
-      <c r="F265" t="n">
+      <c r="F265">
         <v>24.4</v>
       </c>
     </row>
-    <row r="266">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>31</v>
       </c>
@@ -5750,17 +5769,17 @@
       <c r="C266" t="s">
         <v>8</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>1.8</v>
       </c>
-      <c r="E266" t="n">
+      <c r="E266">
         <v>2.7</v>
       </c>
-      <c r="F266" t="n">
+      <c r="F266">
         <v>21.8</v>
       </c>
     </row>
-    <row r="267">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>31</v>
       </c>
@@ -5770,17 +5789,17 @@
       <c r="C267" t="s">
         <v>9</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>5.85</v>
       </c>
-      <c r="E267" t="n">
+      <c r="E267">
         <v>6.8</v>
       </c>
-      <c r="F267" t="n">
+      <c r="F267">
         <v>24.95</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>31</v>
       </c>
@@ -5790,17 +5809,17 @@
       <c r="C268" t="s">
         <v>8</v>
       </c>
-      <c r="D268" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="E268" t="n">
+      <c r="D268">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="E268">
         <v>15.2</v>
       </c>
-      <c r="F268" t="n">
+      <c r="F268">
         <v>30.5</v>
       </c>
     </row>
-    <row r="269">
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>31</v>
       </c>
@@ -5810,17 +5829,17 @@
       <c r="C269" t="s">
         <v>9</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>10.1</v>
       </c>
-      <c r="E269" t="n">
+      <c r="E269">
         <v>15.65</v>
       </c>
-      <c r="F269" t="n">
+      <c r="F269">
         <v>31</v>
       </c>
     </row>
-    <row r="270">
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>31</v>
       </c>
@@ -5830,17 +5849,17 @@
       <c r="C270" t="s">
         <v>8</v>
       </c>
-      <c r="D270" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E270" t="n">
+      <c r="D270">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E270">
         <v>8.9</v>
       </c>
-      <c r="F270" t="n">
+      <c r="F270">
         <v>24.1</v>
       </c>
     </row>
-    <row r="271">
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>31</v>
       </c>
@@ -5850,17 +5869,17 @@
       <c r="C271" t="s">
         <v>9</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>4</v>
       </c>
-      <c r="E271" t="n">
+      <c r="E271">
         <v>8.5</v>
       </c>
-      <c r="F271" t="n">
+      <c r="F271">
         <v>26.35</v>
       </c>
     </row>
-    <row r="272">
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>31</v>
       </c>
@@ -5870,17 +5889,17 @@
       <c r="C272" t="s">
         <v>8</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>1.75</v>
       </c>
-      <c r="E272" t="n">
+      <c r="E272">
         <v>2.75</v>
       </c>
-      <c r="F272" t="n">
+      <c r="F272">
         <v>26.15</v>
       </c>
     </row>
-    <row r="273">
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>31</v>
       </c>
@@ -5890,17 +5909,17 @@
       <c r="C273" t="s">
         <v>9</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>1.8</v>
       </c>
-      <c r="E273" t="n">
+      <c r="E273">
         <v>3.4</v>
       </c>
-      <c r="F273" t="n">
+      <c r="F273">
         <v>28.8</v>
       </c>
     </row>
-    <row r="274">
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>31</v>
       </c>
@@ -5910,17 +5929,17 @@
       <c r="C274" t="s">
         <v>8</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>3.5</v>
       </c>
-      <c r="E274" t="n">
-        <v>9</v>
-      </c>
-      <c r="F274" t="n">
+      <c r="E274">
+        <v>9</v>
+      </c>
+      <c r="F274">
         <v>30.85</v>
       </c>
     </row>
-    <row r="275">
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>31</v>
       </c>
@@ -5930,17 +5949,17 @@
       <c r="C275" t="s">
         <v>9</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>2.85</v>
       </c>
-      <c r="E275" t="n">
+      <c r="E275">
         <v>8.35</v>
       </c>
-      <c r="F275" t="n">
+      <c r="F275">
         <v>30.4</v>
       </c>
     </row>
-    <row r="276">
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>31</v>
       </c>
@@ -5950,17 +5969,17 @@
       <c r="C276" t="s">
         <v>8</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>11.65</v>
       </c>
-      <c r="E276" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="F276" t="n">
+      <c r="E276">
+        <v>16.350000000000001</v>
+      </c>
+      <c r="F276">
         <v>24.1</v>
       </c>
     </row>
-    <row r="277">
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>31</v>
       </c>
@@ -5970,17 +5989,17 @@
       <c r="C277" t="s">
         <v>9</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>5.95</v>
       </c>
-      <c r="E277" t="n">
-        <v>8</v>
-      </c>
-      <c r="F277" t="n">
+      <c r="E277">
+        <v>8</v>
+      </c>
+      <c r="F277">
         <v>25.7</v>
       </c>
     </row>
-    <row r="278">
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>31</v>
       </c>
@@ -5990,17 +6009,17 @@
       <c r="C278" t="s">
         <v>8</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>3.9</v>
       </c>
-      <c r="E278" t="n">
+      <c r="E278">
         <v>6.8</v>
       </c>
-      <c r="F278" t="n">
+      <c r="F278">
         <v>29.8</v>
       </c>
     </row>
-    <row r="279">
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>31</v>
       </c>
@@ -6010,17 +6029,17 @@
       <c r="C279" t="s">
         <v>9</v>
       </c>
-      <c r="D279" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="E279" t="n">
-        <v>8.7</v>
-      </c>
-      <c r="F279" t="n">
+      <c r="D279">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E279">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="F279">
         <v>27.6</v>
       </c>
     </row>
-    <row r="280">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>31</v>
       </c>
@@ -6030,17 +6049,17 @@
       <c r="C280" t="s">
         <v>8</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>1.5</v>
       </c>
-      <c r="E280" t="n">
+      <c r="E280">
         <v>8.85</v>
       </c>
-      <c r="F280" t="n">
+      <c r="F280">
         <v>30.8</v>
       </c>
     </row>
-    <row r="281">
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>31</v>
       </c>
@@ -6050,17 +6069,17 @@
       <c r="C281" t="s">
         <v>9</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>1.65</v>
       </c>
-      <c r="E281" t="n">
+      <c r="E281">
         <v>12</v>
       </c>
-      <c r="F281" t="n">
+      <c r="F281">
         <v>31.85</v>
       </c>
     </row>
-    <row r="282">
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>31</v>
       </c>
@@ -6070,17 +6089,17 @@
       <c r="C282" t="s">
         <v>8</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>2.95</v>
       </c>
-      <c r="E282" t="n">
+      <c r="E282">
         <v>11.55</v>
       </c>
-      <c r="F282" t="n">
+      <c r="F282">
         <v>32.6</v>
       </c>
     </row>
-    <row r="283">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>31</v>
       </c>
@@ -6090,17 +6109,17 @@
       <c r="C283" t="s">
         <v>9</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>3.8</v>
       </c>
-      <c r="E283" t="n">
+      <c r="E283">
         <v>12.6</v>
       </c>
-      <c r="F283" t="n">
+      <c r="F283">
         <v>36.85</v>
       </c>
     </row>
-    <row r="284">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>31</v>
       </c>
@@ -6110,17 +6129,17 @@
       <c r="C284" t="s">
         <v>8</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>11.5</v>
       </c>
-      <c r="E284" t="n">
+      <c r="E284">
         <v>15.35</v>
       </c>
-      <c r="F284" t="n">
+      <c r="F284">
         <v>28.8</v>
       </c>
     </row>
-    <row r="285">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>31</v>
       </c>
@@ -6130,17 +6149,17 @@
       <c r="C285" t="s">
         <v>9</v>
       </c>
-      <c r="D285" t="n">
-        <v>8.55</v>
-      </c>
-      <c r="E285" t="n">
+      <c r="D285">
+        <v>8.5500000000000007</v>
+      </c>
+      <c r="E285">
         <v>10.35</v>
       </c>
-      <c r="F285" t="n">
+      <c r="F285">
         <v>29.8</v>
       </c>
     </row>
-    <row r="286">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>31</v>
       </c>
@@ -6150,17 +6169,17 @@
       <c r="C286" t="s">
         <v>8</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>1.85</v>
       </c>
-      <c r="E286" t="n">
+      <c r="E286">
         <v>7.05</v>
       </c>
-      <c r="F286" t="n">
+      <c r="F286">
         <v>20.7</v>
       </c>
     </row>
-    <row r="287">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>31</v>
       </c>
@@ -6170,17 +6189,17 @@
       <c r="C287" t="s">
         <v>9</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>3.2</v>
       </c>
-      <c r="E287" t="n">
+      <c r="E287">
         <v>10.7</v>
       </c>
-      <c r="F287" t="n">
-        <v>18.85</v>
-      </c>
-    </row>
-    <row r="288">
+      <c r="F287">
+        <v>18.850000000000001</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>32</v>
       </c>
@@ -6190,17 +6209,17 @@
       <c r="C288" t="s">
         <v>8</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>2.1</v>
       </c>
-      <c r="E288" t="n">
+      <c r="E288">
         <v>6.65</v>
       </c>
-      <c r="F288" t="n">
+      <c r="F288">
         <v>23.35</v>
       </c>
     </row>
-    <row r="289">
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>32</v>
       </c>
@@ -6210,17 +6229,17 @@
       <c r="C289" t="s">
         <v>9</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>1.55</v>
       </c>
-      <c r="E289" t="n">
-        <v>18.15</v>
-      </c>
-      <c r="F289" t="n">
+      <c r="E289">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="F289">
         <v>25.3</v>
       </c>
     </row>
-    <row r="290">
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>32</v>
       </c>
@@ -6230,17 +6249,17 @@
       <c r="C290" t="s">
         <v>8</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>7.2</v>
       </c>
-      <c r="E290" t="n">
+      <c r="E290">
         <v>14.55</v>
       </c>
-      <c r="F290" t="n">
+      <c r="F290">
         <v>24.15</v>
       </c>
     </row>
-    <row r="291">
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>32</v>
       </c>
@@ -6250,17 +6269,17 @@
       <c r="C291" t="s">
         <v>9</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>2.7</v>
       </c>
-      <c r="E291" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="F291" t="n">
+      <c r="E291">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="F291">
         <v>24.7</v>
       </c>
     </row>
-    <row r="292">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>32</v>
       </c>
@@ -6270,17 +6289,17 @@
       <c r="C292" t="s">
         <v>8</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>0.85</v>
       </c>
-      <c r="E292" t="n">
+      <c r="E292">
         <v>7.9</v>
       </c>
-      <c r="F292" t="n">
+      <c r="F292">
         <v>24.65</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>32</v>
       </c>
@@ -6290,17 +6309,17 @@
       <c r="C293" t="s">
         <v>9</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>4.2</v>
       </c>
-      <c r="E293" t="n">
+      <c r="E293">
         <v>8.75</v>
       </c>
-      <c r="F293" t="n">
+      <c r="F293">
         <v>26.2</v>
       </c>
     </row>
-    <row r="294">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>32</v>
       </c>
@@ -6310,17 +6329,17 @@
       <c r="C294" t="s">
         <v>8</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>23.05</v>
       </c>
-      <c r="E294" t="n">
+      <c r="E294">
         <v>38.1</v>
       </c>
-      <c r="F294" t="n">
+      <c r="F294">
         <v>29</v>
       </c>
     </row>
-    <row r="295">
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>32</v>
       </c>
@@ -6330,17 +6349,17 @@
       <c r="C295" t="s">
         <v>9</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>27.9</v>
       </c>
-      <c r="E295" t="n">
+      <c r="E295">
         <v>30.6</v>
       </c>
-      <c r="F295" t="n">
-        <v>32.2</v>
-      </c>
-    </row>
-    <row r="296">
+      <c r="F295">
+        <v>32.200000000000003</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>32</v>
       </c>
@@ -6350,17 +6369,17 @@
       <c r="C296" t="s">
         <v>8</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>9.6</v>
       </c>
-      <c r="E296" t="n">
+      <c r="E296">
         <v>19.95</v>
       </c>
-      <c r="F296" t="n">
+      <c r="F296">
         <v>27.25</v>
       </c>
     </row>
-    <row r="297">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>32</v>
       </c>
@@ -6370,17 +6389,17 @@
       <c r="C297" t="s">
         <v>9</v>
       </c>
-      <c r="D297" t="n">
-        <v>4.9</v>
-      </c>
-      <c r="E297" t="n">
-        <v>17.9</v>
-      </c>
-      <c r="F297" t="n">
+      <c r="D297">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E297">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="F297">
         <v>22.85</v>
       </c>
     </row>
-    <row r="298">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>32</v>
       </c>
@@ -6390,17 +6409,17 @@
       <c r="C298" t="s">
         <v>8</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>9.65</v>
       </c>
-      <c r="E298" t="n">
+      <c r="E298">
         <v>20.8</v>
       </c>
-      <c r="F298" t="n">
+      <c r="F298">
         <v>26.4</v>
       </c>
     </row>
-    <row r="299">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>32</v>
       </c>
@@ -6410,17 +6429,17 @@
       <c r="C299" t="s">
         <v>9</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>1.55</v>
       </c>
-      <c r="E299" t="n">
+      <c r="E299">
         <v>13.6</v>
       </c>
-      <c r="F299" t="n">
+      <c r="F299">
         <v>29.55</v>
       </c>
     </row>
-    <row r="300">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>32</v>
       </c>
@@ -6430,17 +6449,17 @@
       <c r="C300" t="s">
         <v>8</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>4.3</v>
       </c>
-      <c r="E300" t="n">
+      <c r="E300">
         <v>23.4</v>
       </c>
-      <c r="F300" t="n">
+      <c r="F300">
         <v>35.15</v>
       </c>
     </row>
-    <row r="301">
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>32</v>
       </c>
@@ -6450,17 +6469,17 @@
       <c r="C301" t="s">
         <v>9</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>2.35</v>
       </c>
-      <c r="E301" t="n">
+      <c r="E301">
         <v>33.75</v>
       </c>
-      <c r="F301" t="n">
+      <c r="F301">
         <v>34.9</v>
       </c>
     </row>
-    <row r="302">
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
         <v>32</v>
       </c>
@@ -6470,17 +6489,17 @@
       <c r="C302" t="s">
         <v>8</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>10.8</v>
       </c>
-      <c r="E302" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="F302" t="n">
+      <c r="E302">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="F302">
         <v>28.1</v>
       </c>
     </row>
-    <row r="303">
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
         <v>32</v>
       </c>
@@ -6490,17 +6509,17 @@
       <c r="C303" t="s">
         <v>9</v>
       </c>
-      <c r="D303" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="E303" t="n">
+      <c r="D303">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="E303">
         <v>15.15</v>
       </c>
-      <c r="F303" t="n">
+      <c r="F303">
         <v>27.1</v>
       </c>
     </row>
-    <row r="304">
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
         <v>32</v>
       </c>
@@ -6510,17 +6529,17 @@
       <c r="C304" t="s">
         <v>8</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>1.8</v>
       </c>
-      <c r="E304" t="n">
+      <c r="E304">
         <v>5</v>
       </c>
-      <c r="F304" t="n">
+      <c r="F304">
         <v>25.25</v>
       </c>
     </row>
-    <row r="305">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
         <v>32</v>
       </c>
@@ -6530,17 +6549,17 @@
       <c r="C305" t="s">
         <v>9</v>
       </c>
-      <c r="D305" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="E305" t="n">
-        <v>9.3</v>
-      </c>
-      <c r="F305" t="n">
+      <c r="D305">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E305">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F305">
         <v>29.3</v>
       </c>
     </row>
-    <row r="306">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
         <v>32</v>
       </c>
@@ -6550,17 +6569,17 @@
       <c r="C306" t="s">
         <v>8</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>0.8</v>
       </c>
-      <c r="E306" t="n">
+      <c r="E306">
         <v>11</v>
       </c>
-      <c r="F306" t="n">
+      <c r="F306">
         <v>31.2</v>
       </c>
     </row>
-    <row r="307">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
         <v>32</v>
       </c>
@@ -6570,17 +6589,17 @@
       <c r="C307" t="s">
         <v>9</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>0.7</v>
       </c>
-      <c r="E307" t="n">
-        <v>9.05</v>
-      </c>
-      <c r="F307" t="n">
+      <c r="E307">
+        <v>9.0500000000000007</v>
+      </c>
+      <c r="F307">
         <v>32.9</v>
       </c>
     </row>
-    <row r="308">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
         <v>32</v>
       </c>
@@ -6590,17 +6609,17 @@
       <c r="C308" t="s">
         <v>8</v>
       </c>
-      <c r="D308" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="E308" t="n">
+      <c r="D308">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E308">
         <v>19.75</v>
       </c>
-      <c r="F308" t="n">
+      <c r="F308">
         <v>33.85</v>
       </c>
     </row>
-    <row r="309">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
         <v>32</v>
       </c>
@@ -6610,17 +6629,17 @@
       <c r="C309" t="s">
         <v>9</v>
       </c>
-      <c r="D309" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E309" t="n">
+      <c r="D309">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E309">
         <v>24.05</v>
       </c>
-      <c r="F309" t="n">
+      <c r="F309">
         <v>34.65</v>
       </c>
     </row>
-    <row r="310">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
         <v>32</v>
       </c>
@@ -6630,17 +6649,17 @@
       <c r="C310" t="s">
         <v>8</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>20.55</v>
       </c>
-      <c r="E310" t="n">
+      <c r="E310">
         <v>30.45</v>
       </c>
-      <c r="F310" t="n">
+      <c r="F310">
         <v>31</v>
       </c>
     </row>
-    <row r="311">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
         <v>32</v>
       </c>
@@ -6650,17 +6669,17 @@
       <c r="C311" t="s">
         <v>9</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>23.65</v>
       </c>
-      <c r="E311" t="n">
+      <c r="E311">
         <v>39.1</v>
       </c>
-      <c r="F311" t="n">
+      <c r="F311">
         <v>27.6</v>
       </c>
     </row>
-    <row r="312">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
         <v>32</v>
       </c>
@@ -6670,17 +6689,17 @@
       <c r="C312" t="s">
         <v>8</v>
       </c>
-      <c r="D312" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="E312" t="n">
+      <c r="D312">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E312">
         <v>25.2</v>
       </c>
-      <c r="F312" t="n">
+      <c r="F312">
         <v>26.15</v>
       </c>
     </row>
-    <row r="313">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
         <v>32</v>
       </c>
@@ -6690,18 +6709,18 @@
       <c r="C313" t="s">
         <v>9</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>2</v>
       </c>
-      <c r="E313" t="n">
+      <c r="E313">
         <v>27.05</v>
       </c>
-      <c r="F313" t="n">
+      <c r="F313">
         <v>23.2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>